--- a/data_and_results/!Reports/yearly reports/2099 - wyniki/2099 - podsumowanie.xlsx
+++ b/data_and_results/!Reports/yearly reports/2099 - wyniki/2099 - podsumowanie.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ogólne" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rzeczy i sprzęty" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hobby i przyjemności" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rozrywka" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transport i noclegi" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Podróże" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Abonamenty i usługi" sheetId="6" state="visible" r:id="rId6"/>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>2724.85</v>
+        <v>2722.02</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>3958.33</v>
@@ -467,7 +467,7 @@
         <v>3950</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1225.15</v>
+        <v>1227.98</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
@@ -496,13 +496,13 @@
         <v>4122.5</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1104.1</v>
+        <v>1109.1</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>14701.77</v>
+        <v>14735.77</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>31.02</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>663.41</v>
+        <v>664.24</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>524.9</v>
@@ -521,7 +521,7 @@
         <v>593.63</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>858.46</v>
+        <v>858.7</v>
       </c>
     </row>
     <row r="5">
